--- a/CAS.xlsx
+++ b/CAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\urms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CC23D9-5105-446D-9525-48A1F89306BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA552301-6BD5-4B87-9FC7-37CFBE9E0AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{35FBAE72-4DEB-49D5-8D9E-851A9644E857}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9072" xr2:uid="{35FBAE72-4DEB-49D5-8D9E-851A9644E857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Index</t>
   </si>
@@ -127,6 +127,75 @@
   </si>
   <si>
     <t>D/BSE/19/0085</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0002</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0003</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0004</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0005</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0006</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0007</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0008</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0009</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0010</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0011</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0012</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0013</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0002</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0003</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0004</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0005</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0006</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0007</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0008</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0009</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0010</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0011</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0012</t>
   </si>
 </sst>
 </file>
@@ -478,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CECFC8B-343A-4A1E-8BE5-F7EF2F2AFC05}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +572,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -511,8 +580,8 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B30" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <f t="shared" ref="B3:B53" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -521,7 +590,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,7 +599,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +608,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +617,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +626,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +635,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +644,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +653,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -593,7 +662,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +671,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +680,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +689,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,7 +698,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +707,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -647,7 +716,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +725,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,7 +734,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +743,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +752,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +761,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +770,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +779,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +788,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +797,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,7 +806,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +815,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +824,214 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
